--- a/TestData/PositiveTestData.xlsx
+++ b/TestData/PositiveTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drivers\Carbonite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9EA77-66F9-4487-A627-AB3277EE7157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358AB86E-EFA6-4D50-8F3D-B2AF1BFAF3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>Manager@123</t>
   </si>
   <si>
-    <t>manvir__singh1@gmail.com</t>
-  </si>
-  <si>
-    <t>manvir__singh12@gmail.com</t>
-  </si>
-  <si>
-    <t>manvir__singh123@gmail.com</t>
+    <t>manvir..singh1@gmail.com</t>
+  </si>
+  <si>
+    <t>manvir..singh12@gmail.com</t>
+  </si>
+  <si>
+    <t>manvir..singh123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,9 +212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,7 +498,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +521,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -577,9 +574,9 @@
     <hyperlink ref="D4" r:id="rId7" xr:uid="{C4456A31-54A3-48E0-ACB2-2FD355DDDAEA}"/>
     <hyperlink ref="A4" r:id="rId8" xr:uid="{CB1EFED9-D6B1-4A5C-8BA5-DBECF3B13231}"/>
     <hyperlink ref="A3" r:id="rId9" xr:uid="{15241DB5-056C-4C3B-8B4C-894B5FFB1A80}"/>
-    <hyperlink ref="B2" r:id="rId10" xr:uid="{885EB959-23C7-4B5C-AA5D-815E13E16C08}"/>
-    <hyperlink ref="B4" r:id="rId11" xr:uid="{8BE443B7-D7AA-40D1-8868-A9E035106E0A}"/>
-    <hyperlink ref="B3" r:id="rId12" xr:uid="{1B07621D-070F-41DC-A966-9C9FDC552991}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{1BF05409-F78F-46B1-B940-8A732842EFB2}"/>
+    <hyperlink ref="B4" r:id="rId11" xr:uid="{42A04016-F22A-4A7E-B924-A259EFB689A2}"/>
+    <hyperlink ref="B3" r:id="rId12" xr:uid="{C3AE4EFD-F012-4A1A-908A-2DCA972DE791}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/TestData/PositiveTestData.xlsx
+++ b/TestData/PositiveTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drivers\Carbonite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\eclipse-workspace\carbonite_QA\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358AB86E-EFA6-4D50-8F3D-B2AF1BFAF3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D16FB6-0258-4058-8252-70F995B97443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>Manager@123</t>
   </si>
   <si>
-    <t>manvir..singh1@gmail.com</t>
-  </si>
-  <si>
-    <t>manvir..singh12@gmail.com</t>
-  </si>
-  <si>
-    <t>manvir..singh123@gmail.com</t>
+    <t>manvir..singh9@it.com</t>
+  </si>
+  <si>
+    <t>manvir..singh91@it.com</t>
+  </si>
+  <si>
+    <t>manvir..singh92@it.com</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,18 +565,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{967A90AA-A571-438E-8313-060A693DBD99}"/>
+    <hyperlink ref="A2" r:id="rId1" display="manvir..singh9@gmail.com" xr:uid="{967A90AA-A571-438E-8313-060A693DBD99}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{830A5FDF-E8C0-4786-88C7-F9F7A697A65E}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{3A51A325-FE90-487E-8BEB-129BB604893B}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{D2C62EC8-9AAE-4A2E-864C-29FC07FE39E6}"/>
     <hyperlink ref="C4" r:id="rId5" xr:uid="{13966637-5745-4D21-A395-4B3771FE1A30}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{A6671237-814F-4453-B485-E785D6E173D0}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{C4456A31-54A3-48E0-ACB2-2FD355DDDAEA}"/>
-    <hyperlink ref="A4" r:id="rId8" xr:uid="{CB1EFED9-D6B1-4A5C-8BA5-DBECF3B13231}"/>
-    <hyperlink ref="A3" r:id="rId9" xr:uid="{15241DB5-056C-4C3B-8B4C-894B5FFB1A80}"/>
-    <hyperlink ref="B2" r:id="rId10" xr:uid="{1BF05409-F78F-46B1-B940-8A732842EFB2}"/>
-    <hyperlink ref="B4" r:id="rId11" xr:uid="{42A04016-F22A-4A7E-B924-A259EFB689A2}"/>
-    <hyperlink ref="B3" r:id="rId12" xr:uid="{C3AE4EFD-F012-4A1A-908A-2DCA972DE791}"/>
+    <hyperlink ref="A3" r:id="rId8" display="manvir..singh91@gmail.com" xr:uid="{2015D486-17A2-46A9-86EC-BC89B22AB13D}"/>
+    <hyperlink ref="A4" r:id="rId9" display="manvir..singh92@gmail.com" xr:uid="{7C646D6C-C49C-42B9-B13F-E6AAD90ACA46}"/>
+    <hyperlink ref="B2" r:id="rId10" display="manvir..singh9@gmail.com" xr:uid="{FBB33232-1CCB-4CE3-B22A-7EF9B2CC26E5}"/>
+    <hyperlink ref="B3" r:id="rId11" display="manvir..singh91@gmail.com" xr:uid="{B4445149-0570-4CF7-815D-CAE7C8C4BA82}"/>
+    <hyperlink ref="B4" r:id="rId12" display="manvir..singh92@gmail.com" xr:uid="{83DFB1B1-D943-4BF4-9A33-1E203546AEC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
